--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2238078.501017915</v>
+        <v>-2240076.17403076</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>946754.4324681257</v>
+        <v>772321.3476199028</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.96991200397466</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>287.7977187205012</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>134.4100466500112</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>266.6210949690529</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>140.7242138965179</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>163.939837924303</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>118.0056219508402</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>36.28779755549774</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>315.9099902864843</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364034</v>
+        <v>77.15919157187261</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>33.35146980185925</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185922</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>148.4655527091738</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.35146980185922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>127.7178027211458</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789503</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463105</v>
+        <v>42.2873553346319</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689363</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415277</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,19 +3478,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689359</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689365</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373669</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,19 +4189,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689359</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>916.0775323114326</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C2" t="n">
-        <v>625.3727659270879</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D2" t="n">
-        <v>625.3727659270879</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>189.7107057092647</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4507,22 +4507,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628421</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.179761166176</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9140625594257</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>1288.509552617346</v>
       </c>
       <c r="C8" t="n">
-        <v>533.4554588638564</v>
+        <v>919.5470356769345</v>
       </c>
       <c r="D8" t="n">
-        <v>533.4554588638564</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>533.4554588638564</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>526.5099581146529</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1675.109392681468</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1675.109392681468</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092204</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092204</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,34 +5054,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5106,31 +5106,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>343.98221936675</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M12" t="n">
-        <v>783.5490372870996</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N12" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O12" t="n">
         <v>1797.533454227377</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>323.6581146605665</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>323.6581146605665</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N15" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O15" t="n">
         <v>1797.533454227377</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954972</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5537,22 +5537,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
         <v>1797.533454227377</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324578</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954972</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954972</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>1031.449480746876</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N21" t="n">
         <v>1128.069692924718</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383442</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6029,10 +6029,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899877</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N24" t="n">
         <v>1128.069692924718</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C25" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6218,16 +6218,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,25 +6236,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N27" t="n">
         <v>1128.069692924718</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H28" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6546,10 +6546,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605669</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N30" t="n">
         <v>1128.069692924718</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,28 +6765,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N33" t="n">
         <v>1128.069692924718</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6938,22 +6938,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7020,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527474</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N36" t="n">
         <v>1128.069692924718</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986522</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899876</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N39" t="n">
         <v>1128.069692924718</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N42" t="n">
         <v>1128.069692924718</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,10 +7564,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7643,16 +7643,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>228.9378860003445</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>367.2826860427839</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N21" t="n">
-        <v>228.9378860003447</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9723,7 +9723,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849285</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>367.2826860427847</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849285</v>
+        <v>150.5542491702054</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>77.47517305050637</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>272.4659990917002</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>308.8209695315647</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502355</v>
       </c>
     </row>
     <row r="14">
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871779</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>138.0574456274172</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.2331835502356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>115.2640032163538</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>158.8051956154452</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892131</v>
+        <v>90335.72423892134</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758329</v>
+        <v>787.7936905759104</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758668</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905757877</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189633</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-763162.6815168753</v>
+        <v>-763376.0935067539</v>
       </c>
       <c r="C6" t="n">
         <v>-221918.2172440285</v>
@@ -26528,22 +26528,22 @@
         <v>-221918.2172440285</v>
       </c>
       <c r="E6" t="n">
-        <v>-617935.1561161887</v>
+        <v>-618032.6152421606</v>
       </c>
       <c r="F6" t="n">
-        <v>-92775.1196392925</v>
+        <v>-92872.57876526465</v>
       </c>
       <c r="G6" t="n">
-        <v>-92775.11963929248</v>
+        <v>-92872.57876526465</v>
       </c>
       <c r="H6" t="n">
-        <v>-92775.11963929242</v>
+        <v>-92872.57876526465</v>
       </c>
       <c r="I6" t="n">
         <v>-175427.1988556343</v>
       </c>
       <c r="J6" t="n">
-        <v>-297344.9059445146</v>
+        <v>-297344.9059445147</v>
       </c>
       <c r="K6" t="n">
         <v>-120921.6867519217</v>
@@ -26552,7 +26552,7 @@
         <v>-120921.6867519218</v>
       </c>
       <c r="M6" t="n">
-        <v>-255722.7019857589</v>
+        <v>-255722.7019857588</v>
       </c>
       <c r="N6" t="n">
         <v>-175427.1988556343</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,22 +26926,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.7639296595059</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>104.9632004892302</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.25950038248487</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>19.66077927292486</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>224.5486778744897</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>217.9905321479588</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>19.66077927292486</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>168.5173763857508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>318.3952440651852</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>97.87417973431064</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401877</v>
+        <v>174.9784517519554</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="26">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31127,13 +31127,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423951</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>11.76595806653231</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>120.4358569602504</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>137.40759639269</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32318,31 +32318,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>370.862340184928</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>369.6935619162747</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33029,13 +33029,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,25 +33172,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33269,10 +33269,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849285</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>137.4075963926899</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849284</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33737,16 +33737,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>367.2826860427847</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>396.4775252873437</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,16 +33974,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>369.6935619162748</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,19 +34208,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,40 +34360,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,10 +34442,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,19 +34454,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>370.862340184928</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>444.006886788232</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>97.59617391701116</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>228.7283062629097</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>460.9786262206716</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629097</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N21" t="n">
-        <v>97.59617391701138</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N24" t="n">
-        <v>717.6942241764949</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36458,7 +36458,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>485.4082586529101</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>265.1358132040104</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N39" t="n">
-        <v>717.694224176495</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629101</v>
+        <v>460.9786262206716</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629097</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
